--- a/demo.xlsx
+++ b/demo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài Liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài Liệu\document_thu_hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426FAC7-1881-4766-B3B3-CF9F3176DC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D33AA-16C9-4BF6-9FD1-D953A0742F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -350,7 +351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -364,4 +365,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58D6B96-AE82-48AF-ABA3-07B853DE632F}">
+  <dimension ref="B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>